--- a/biology/Zoologie/Conus_purus/Conus_purus.xlsx
+++ b/biology/Zoologie/Conus_purus/Conus_purus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus purus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus purus a été décrite pour la première fois en 1863 par le malacologiste américain William Harper Pease (1824–1871)[1] dans « Proceedings of the Zoological Society of London. »[2],[3].
-Synonymes
-Conus (Darioconus) leviteni (J. K. Tucker, Tenorio &amp; Chaney, 2011) · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus purus a été décrite pour la première fois en 1863 par le malacologiste américain William Harper Pease (1824–1871) dans « Proceedings of the Zoological Society of London. »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_purus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_purus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) leviteni (J. K. Tucker, Tenorio &amp; Chaney, 2011) · non accepté
 Conus (Darioconus) purus Pease, 1863 · appellation alternative
 Conus leviteni (J. K. Tucker, Tenorio &amp; Chaney, 2011) · non accepté
 Conus racemosus G. B. Sowerby III, 1874 · non accepté
